--- a/지능 시스템 설계 중간대체 프로젝트/정확도 비교.xlsx
+++ b/지능 시스템 설계 중간대체 프로젝트/정확도 비교.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A343483-5187-426D-89CC-454E5D37A2E3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C424DA28-8213-4917-A64A-5ECD4936922D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36765" yWindow="2640" windowWidth="25455" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -109,12 +109,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -368,49 +369,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.96699999999999997</c:v>
+                  <c:v>0.95640000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96899999999999997</c:v>
+                  <c:v>0.9667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97019999999999995</c:v>
+                  <c:v>0.97089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97160000000000002</c:v>
+                  <c:v>0.9718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97209999999999996</c:v>
+                  <c:v>0.97230000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97370000000000001</c:v>
+                  <c:v>0.97330000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97289999999999999</c:v>
+                  <c:v>0.97309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97299999999999998</c:v>
+                  <c:v>0.97330000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97150000000000003</c:v>
+                  <c:v>0.97340000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97140000000000004</c:v>
+                  <c:v>0.97219999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.97250000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97119999999999995</c:v>
+                  <c:v>0.97340000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97109999999999996</c:v>
+                  <c:v>0.97270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.96989999999999998</c:v>
+                  <c:v>0.97130000000000005</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97009999999999996</c:v>
+                  <c:v>0.97189999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,49 +1240,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.92100000000000004</c:v>
+                  <c:v>0.92269999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94750000000000001</c:v>
+                  <c:v>0.94820000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95930000000000004</c:v>
+                  <c:v>0.95879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96599999999999997</c:v>
+                  <c:v>0.96879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96970000000000001</c:v>
+                  <c:v>0.97030000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97299999999999998</c:v>
+                  <c:v>0.9728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97340000000000004</c:v>
+                  <c:v>0.97519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97489999999999999</c:v>
+                  <c:v>0.97589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9758</c:v>
+                  <c:v>0.97729999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.97760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.97799999999999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.97760000000000002</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9758</c:v>
+                  <c:v>0.97689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9768</c:v>
+                  <c:v>0.97870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97740000000000005</c:v>
+                  <c:v>0.97970000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2908,49 +2909,49 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0.92100000000000004</c:v>
+                  <c:v>0.92269999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94750000000000001</c:v>
+                  <c:v>0.94820000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95930000000000004</c:v>
+                  <c:v>0.95879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96599999999999997</c:v>
+                  <c:v>0.96879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96970000000000001</c:v>
+                  <c:v>0.97030000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97299999999999998</c:v>
+                  <c:v>0.9728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97340000000000004</c:v>
+                  <c:v>0.97519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97489999999999999</c:v>
+                  <c:v>0.97589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9758</c:v>
+                  <c:v>0.97729999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.97760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.97799999999999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.97760000000000002</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9758</c:v>
+                  <c:v>0.97689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9768</c:v>
+                  <c:v>0.97870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97740000000000005</c:v>
+                  <c:v>0.97970000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5917,54 +5918,99 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$17</c:f>
+              <c:f>Sheet1!$G$3:$G$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.92100000000000004</c:v>
+                  <c:v>0.92269999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.94750000000000001</c:v>
+                  <c:v>0.94820000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.95930000000000004</c:v>
+                  <c:v>0.95879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.96599999999999997</c:v>
+                  <c:v>0.96879999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.96970000000000001</c:v>
+                  <c:v>0.97030000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97299999999999998</c:v>
+                  <c:v>0.9728</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97340000000000004</c:v>
+                  <c:v>0.97519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97489999999999999</c:v>
+                  <c:v>0.97589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.9758</c:v>
+                  <c:v>0.97729999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>0.97760000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.97789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>0.97799999999999998</c:v>
                 </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.97699999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.97760000000000002</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.9758</c:v>
+                  <c:v>0.97689999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.9768</c:v>
+                  <c:v>0.97870000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.97740000000000005</c:v>
+                  <c:v>0.97970000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.9798</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98009999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97940000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.97950000000000004</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.97840000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.98050000000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.9798</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.97919999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.98019999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.97989999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.98060000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.98089999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6342,54 +6388,99 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$17</c:f>
+              <c:f>Sheet1!$B$3:$B$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>0.96699999999999997</c:v>
+                  <c:v>0.95640000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.96899999999999997</c:v>
+                  <c:v>0.9667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.97019999999999995</c:v>
+                  <c:v>0.97089999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.97160000000000002</c:v>
+                  <c:v>0.9718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97209999999999996</c:v>
+                  <c:v>0.97230000000000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.97370000000000001</c:v>
+                  <c:v>0.97330000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.97289999999999999</c:v>
+                  <c:v>0.97309999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.97299999999999998</c:v>
+                  <c:v>0.97330000000000005</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.97150000000000003</c:v>
+                  <c:v>0.97340000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.97140000000000004</c:v>
+                  <c:v>0.97219999999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.97250000000000003</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.97119999999999995</c:v>
+                  <c:v>0.97340000000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97109999999999996</c:v>
+                  <c:v>0.97270000000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>0.97130000000000005</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.97189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.97240000000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.97270000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.97040000000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.97040000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.96930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96930000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.96989999999999998</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.97009999999999996</c:v>
+                <c:pt idx="25">
+                  <c:v>0.96989999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.96850000000000003</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.96860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.96809999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11040,888 +11131,1023 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="P51" sqref="P51"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="K1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.96699999999999997</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3" s="1">
+        <v>0.95640000000000003</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.94989999999999997</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <v>0.90749999999999997</v>
       </c>
-      <c r="G3" s="2">
-        <v>0.92100000000000004</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="G3" s="1">
+        <v>0.92269999999999996</v>
+      </c>
+      <c r="H3" s="1">
         <v>0.9375</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.89800000000000002</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="1">
         <v>1</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="1">
         <v>0.54310000000000003</v>
       </c>
-      <c r="M3" s="2">
+      <c r="M3" s="1">
         <v>0.51700000000000002</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
-        <v>0.96899999999999997</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="B4" s="1">
+        <v>0.9667</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.93630000000000002</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <v>0.9284</v>
       </c>
-      <c r="G4" s="2">
-        <v>0.94750000000000001</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="G4" s="1">
+        <v>0.94820000000000004</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.95860000000000001</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.77959999999999996</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="2">
+      <c r="L4" s="1">
         <v>0.8367</v>
       </c>
-      <c r="M4" s="2">
+      <c r="M4" s="1">
         <v>0.75480000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.97019999999999995</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B5" s="1">
+        <v>0.97089999999999999</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.93689999999999996</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>0.93979999999999997</v>
       </c>
-      <c r="G5" s="2">
-        <v>0.95930000000000004</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="G5" s="1">
+        <v>0.95879999999999999</v>
+      </c>
+      <c r="H5" s="1">
         <v>0.95830000000000004</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.79820000000000002</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="1">
         <v>3</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="1">
         <v>0.89500000000000002</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="1">
         <v>0.88739999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.97160000000000002</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B6" s="1">
+        <v>0.9718</v>
+      </c>
+      <c r="C6" s="1">
         <v>0.93930000000000002</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>4</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>0.94830000000000003</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.96599999999999997</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="G6" s="1">
+        <v>0.96879999999999999</v>
+      </c>
+      <c r="H6" s="1">
         <v>0.95950000000000002</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.76100000000000001</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>4</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>0.91569999999999996</v>
       </c>
-      <c r="M6" s="2">
+      <c r="M6" s="1">
         <v>0.92259999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.97209999999999996</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B7" s="1">
+        <v>0.97230000000000005</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.93340000000000001</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>5</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>0.95389999999999997</v>
       </c>
-      <c r="G7" s="2">
-        <v>0.96970000000000001</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="G7" s="1">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="H7" s="1">
         <v>0.9637</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.55230000000000001</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="1">
         <v>5</v>
       </c>
-      <c r="L7" s="2">
+      <c r="L7" s="1">
         <v>0.92779999999999996</v>
       </c>
-      <c r="M7" s="2">
+      <c r="M7" s="1">
         <v>0.94089999999999996</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
-        <v>0.97370000000000001</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.92100000000000004</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>6</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>0.9587</v>
       </c>
-      <c r="G8" s="2">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="H8" s="2">
+      <c r="G8" s="1">
+        <v>0.9728</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.96740000000000004</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <v>0.65069999999999995</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <v>6</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="1">
         <v>0.9385</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <v>0.9526</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
-        <v>0.97289999999999999</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="B9" s="1">
+        <v>0.97309999999999997</v>
+      </c>
+      <c r="C9" s="1">
         <v>0.90710000000000002</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>7</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>0.96140000000000003</v>
       </c>
-      <c r="G9" s="2">
-        <v>0.97340000000000004</v>
-      </c>
-      <c r="H9" s="2">
+      <c r="G9" s="1">
+        <v>0.97519999999999996</v>
+      </c>
+      <c r="H9" s="1">
         <v>0.9607</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.6885</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <v>7</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="1">
         <v>0.94599999999999995</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <v>0.95920000000000005</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="1">
+        <v>0.97330000000000005</v>
+      </c>
+      <c r="C10" s="1">
         <v>0.90400000000000003</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>8</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>0.96350000000000002</v>
       </c>
-      <c r="G10" s="2">
-        <v>0.97489999999999999</v>
-      </c>
-      <c r="H10" s="2">
+      <c r="G10" s="1">
+        <v>0.97589999999999999</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.95389999999999997</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.71750000000000003</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <v>8</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10" s="1">
         <v>0.9526</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <v>0.9637</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>0.97150000000000003</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="B11" s="1">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.91800000000000004</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>0.9657</v>
       </c>
-      <c r="G11" s="2">
-        <v>0.9758</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="G11" s="1">
+        <v>0.97729999999999995</v>
+      </c>
+      <c r="H11" s="1">
         <v>0.95909999999999995</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0.49159999999999998</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <v>9</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11" s="1">
         <v>0.95709999999999995</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <v>0.96840000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>0.97140000000000004</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B12" s="1">
+        <v>0.97219999999999995</v>
+      </c>
+      <c r="C12" s="1">
         <v>0.90980000000000005</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>10</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>0.96730000000000005</v>
       </c>
-      <c r="G12" s="2">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="H12" s="2">
+      <c r="G12" s="1">
+        <v>0.97760000000000002</v>
+      </c>
+      <c r="H12" s="1">
         <v>0.95660000000000001</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>0.40799999999999997</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="1">
         <v>10</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12" s="1">
         <v>0.96030000000000004</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12" s="1">
         <v>0.97030000000000005</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>0.97250000000000003</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" s="1">
         <v>0.87680000000000002</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>11</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>0.96989999999999998</v>
       </c>
-      <c r="G13" s="2">
-        <v>0.97699999999999998</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="G13" s="1">
+        <v>0.97789999999999999</v>
+      </c>
+      <c r="H13" s="1">
         <v>0.94240000000000002</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>0.53180000000000005</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="1">
         <v>11</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13" s="1">
         <v>0.96250000000000002</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13" s="1">
         <v>0.97</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="2">
-        <v>0.97119999999999995</v>
-      </c>
-      <c r="C14" s="2">
+      <c r="B14" s="1">
+        <v>0.97340000000000004</v>
+      </c>
+      <c r="C14" s="1">
         <v>0.91180000000000005</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>12</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>0.97140000000000004</v>
       </c>
-      <c r="G14" s="2">
-        <v>0.97760000000000002</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="G14" s="1">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="H14" s="1">
         <v>0.95320000000000005</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>0.38690000000000002</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="1">
         <v>12</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L14" s="1">
         <v>0.96399999999999997</v>
       </c>
-      <c r="M14" s="2">
+      <c r="M14" s="1">
         <v>0.97040000000000004</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="2">
-        <v>0.97109999999999996</v>
-      </c>
-      <c r="C15" s="2">
+      <c r="B15" s="1">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="C15" s="1">
         <v>0.91159999999999997</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>13</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>0.97230000000000005</v>
       </c>
-      <c r="G15" s="2">
-        <v>0.9758</v>
-      </c>
-      <c r="H15" s="2">
+      <c r="G15" s="1">
+        <v>0.97689999999999999</v>
+      </c>
+      <c r="H15" s="1">
         <v>0.96</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>0.45829999999999999</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="1">
         <v>13</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L15" s="1">
         <v>0.96530000000000005</v>
       </c>
-      <c r="M15" s="2">
+      <c r="M15" s="1">
         <v>0.9708</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="2">
-        <v>0.96989999999999998</v>
-      </c>
-      <c r="C16" s="2">
+      <c r="B16" s="1">
+        <v>0.97130000000000005</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.89390000000000003</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>14</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>0.97319999999999995</v>
       </c>
-      <c r="G16" s="2">
-        <v>0.9768</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="1">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="H16" s="1">
         <v>0.95109999999999995</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="1">
         <v>0.57769999999999999</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="1">
         <v>14</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="1">
         <v>0.9667</v>
       </c>
-      <c r="M16" s="2">
+      <c r="M16" s="1">
         <v>0.97030000000000005</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="2">
-        <v>0.97009999999999996</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="1">
+        <v>0.97189999999999999</v>
+      </c>
+      <c r="C17" s="1">
         <v>0.90769999999999995</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>15</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <v>0.97430000000000005</v>
       </c>
-      <c r="G17" s="2">
-        <v>0.97740000000000005</v>
-      </c>
-      <c r="H17" s="2">
+      <c r="G17" s="1">
+        <v>0.97970000000000002</v>
+      </c>
+      <c r="H17" s="1">
         <v>0.95820000000000005</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="1">
         <v>0.50170000000000003</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <v>15</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L17" s="1">
         <v>0.9677</v>
       </c>
-      <c r="M17" s="2">
+      <c r="M17" s="1">
         <v>0.97070000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="2">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="F18" s="2">
+      <c r="B18" s="3">
+        <v>0.97240000000000004</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="E18" s="1">
+        <v>16</v>
+      </c>
+      <c r="F18" s="1">
         <v>0.97519999999999996</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="K18" s="2">
+      <c r="G18" s="1">
+        <v>0.9798</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="K18" s="1">
         <v>16</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L18" s="1">
         <v>0.96789999999999998</v>
       </c>
-      <c r="M18" s="2">
+      <c r="M18" s="1">
         <v>0.97109999999999996</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E19" s="2">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="F19" s="2">
+      <c r="B19" s="3">
+        <v>0.97270000000000001</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="E19" s="1">
+        <v>17</v>
+      </c>
+      <c r="F19" s="1">
         <v>0.9758</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="K19" s="2">
+      <c r="G19" s="1">
+        <v>0.98009999999999997</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="1">
         <v>17</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L19" s="1">
         <v>0.96889999999999998</v>
       </c>
-      <c r="M19" s="2">
+      <c r="M19" s="1">
         <v>0.97009999999999996</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E20" s="2">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="F20" s="2">
+      <c r="B20" s="3">
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="E20" s="1">
+        <v>18</v>
+      </c>
+      <c r="F20" s="1">
         <v>0.97640000000000005</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="K20" s="2">
+      <c r="G20" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="K20" s="1">
         <v>18</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="1">
         <v>0.96960000000000002</v>
       </c>
-      <c r="M20" s="2">
+      <c r="M20" s="1">
         <v>0.97160000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E21" s="2">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="F21" s="2">
+      <c r="B21" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="E21" s="1">
+        <v>19</v>
+      </c>
+      <c r="F21" s="1">
         <v>0.97650000000000003</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="K21" s="2">
+      <c r="G21" s="1">
+        <v>0.97909999999999997</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="K21" s="1">
         <v>19</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L21" s="1">
         <v>0.97</v>
       </c>
-      <c r="M21" s="2">
+      <c r="M21" s="1">
         <v>0.97330000000000005</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E22" s="2">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="F22" s="2">
+      <c r="B22" s="1">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="E22" s="1">
+        <v>20</v>
+      </c>
+      <c r="F22" s="1">
         <v>0.9768</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="K22" s="2">
+      <c r="G22" s="1">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="K22" s="1">
         <v>20</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L22" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="M22" s="2">
+      <c r="M22" s="1">
         <v>0.97309999999999997</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E23" s="2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="F23" s="2">
+      <c r="B23" s="1">
+        <v>0.97040000000000004</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="E23" s="1">
+        <v>21</v>
+      </c>
+      <c r="F23" s="1">
         <v>0.97699999999999998</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="K23" s="2">
+      <c r="G23" s="1">
+        <v>0.97940000000000005</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="K23" s="1">
         <v>21</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L23" s="1">
         <v>0.97140000000000004</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>0.97099999999999997</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E24" s="2">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="F24" s="2">
+      <c r="B24" s="1">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="E24" s="1">
+        <v>22</v>
+      </c>
+      <c r="F24" s="1">
         <v>0.97729999999999995</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="K24" s="2">
+      <c r="G24" s="1">
+        <v>0.97950000000000004</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="K24" s="1">
         <v>22</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L24" s="1">
         <v>0.97150000000000003</v>
       </c>
-      <c r="M24" s="2">
+      <c r="M24" s="1">
         <v>0.96970000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E25" s="2">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="F25" s="2">
+      <c r="B25" s="1">
+        <v>0.96930000000000005</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="E25" s="1">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1">
         <v>0.97750000000000004</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="K25" s="2">
+      <c r="G25" s="1">
+        <v>0.97840000000000005</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="K25" s="1">
         <v>23</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L25" s="1">
         <v>0.97199999999999998</v>
       </c>
-      <c r="M25" s="2">
+      <c r="M25" s="1">
         <v>0.97040000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E26" s="2">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="F26" s="2">
+      <c r="B26" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="E26" s="1">
+        <v>24</v>
+      </c>
+      <c r="F26" s="1">
         <v>0.97799999999999998</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="K26" s="2">
+      <c r="G26" s="1">
+        <v>0.98050000000000004</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="K26" s="1">
         <v>24</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L26" s="1">
         <v>0.97150000000000003</v>
       </c>
-      <c r="M26" s="2">
+      <c r="M26" s="1">
         <v>0.97089999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E27" s="2">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="F27" s="2">
+      <c r="B27" s="1">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="E27" s="1">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="K27" s="2">
+      <c r="G27" s="1">
+        <v>0.9798</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="K27" s="1">
         <v>25</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L27" s="1">
         <v>0.97289999999999999</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M27" s="1">
         <v>0.97089999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E28" s="2">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="F28" s="2">
+      <c r="B28" s="1">
+        <v>0.96989999999999998</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="E28" s="1">
+        <v>26</v>
+      </c>
+      <c r="F28" s="1">
         <v>0.97850000000000004</v>
       </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="K28" s="2">
+      <c r="G28" s="1">
+        <v>0.97919999999999996</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="K28" s="1">
         <v>26</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L28" s="1">
         <v>0.97270000000000001</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M28" s="1">
         <v>0.97140000000000004</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E29" s="2">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="F29" s="2">
+      <c r="B29" s="1">
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="E29" s="1">
+        <v>27</v>
+      </c>
+      <c r="F29" s="1">
         <v>0.97840000000000005</v>
       </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="K29" s="2">
+      <c r="G29" s="1">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="K29" s="1">
         <v>27</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L29" s="1">
         <v>0.97319999999999995</v>
       </c>
-      <c r="M29" s="2">
+      <c r="M29" s="1">
         <v>0.97050000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E30" s="2">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="F30" s="2">
+      <c r="B30" s="1">
+        <v>0.96860000000000002</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="E30" s="1">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1">
         <v>0.97840000000000005</v>
       </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="K30" s="2">
+      <c r="G30" s="1">
+        <v>0.97989999999999999</v>
+      </c>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="K30" s="1">
         <v>28</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L30" s="1">
         <v>0.97250000000000003</v>
       </c>
-      <c r="M30" s="2">
+      <c r="M30" s="1">
         <v>0.96640000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E31" s="2">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="F31" s="2">
+      <c r="B31" s="1">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="E31" s="1">
+        <v>29</v>
+      </c>
+      <c r="F31" s="1">
         <v>0.97840000000000005</v>
       </c>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="K31" s="2">
+      <c r="G31" s="1">
+        <v>0.98060000000000003</v>
+      </c>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="K31" s="1">
         <v>29</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L31" s="1">
         <v>0.97260000000000002</v>
       </c>
-      <c r="M31" s="2">
+      <c r="M31" s="1">
         <v>0.96730000000000005</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E32" s="2">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="F32" s="2">
+      <c r="B32" s="1">
+        <v>0.96809999999999996</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="E32" s="1">
+        <v>30</v>
+      </c>
+      <c r="F32" s="1">
         <v>0.97809999999999997</v>
       </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="K32" s="2">
+      <c r="G32" s="1">
+        <v>0.98089999999999999</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="K32" s="1">
         <v>30</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L32" s="1">
         <v>0.97260000000000002</v>
       </c>
-      <c r="M32" s="2">
+      <c r="M32" s="1">
         <v>0.96879999999999999</v>
       </c>
     </row>
@@ -11932,30 +12158,30 @@
     <mergeCell ref="K1:M1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B17">
-    <cfRule type="top10" priority="9" rank="1"/>
-    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
+  <conditionalFormatting sqref="B3:B21">
+    <cfRule type="top10" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C17">
-    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F31">
-    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G3:G17">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3:H17">
-    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I32">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L3:L32">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M32">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G32">
+    <cfRule type="top10" dxfId="0" priority="2" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
